--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>24.71975492188754</v>
+        <v>201.1454945941595</v>
       </c>
       <c r="R2">
-        <v>24.71975492188754</v>
+        <v>1810.309451347435</v>
       </c>
       <c r="S2">
-        <v>0.01674726235595311</v>
+        <v>0.08315185547116646</v>
       </c>
       <c r="T2">
-        <v>0.01674726235595311</v>
+        <v>0.08315185547116644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>122.7286637044597</v>
+        <v>587.2863319562763</v>
       </c>
       <c r="R3">
-        <v>122.7286637044597</v>
+        <v>5285.576987606486</v>
       </c>
       <c r="S3">
-        <v>0.0831468247217228</v>
+        <v>0.2427792295002651</v>
       </c>
       <c r="T3">
-        <v>0.0831468247217228</v>
+        <v>0.242779229500265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>10.91828921671209</v>
+        <v>16.22688708850011</v>
       </c>
       <c r="R4">
-        <v>10.91828921671209</v>
+        <v>146.041983796501</v>
       </c>
       <c r="S4">
-        <v>0.007396976813412888</v>
+        <v>0.006708058625187206</v>
       </c>
       <c r="T4">
-        <v>0.007396976813412888</v>
+        <v>0.006708058625187205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.863246657766</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>122.863246657766</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>178.3610412024088</v>
+        <v>53.07932104051056</v>
       </c>
       <c r="R5">
-        <v>178.3610412024088</v>
+        <v>477.7138893645949</v>
       </c>
       <c r="S5">
-        <v>0.1208369241740694</v>
+        <v>0.02194254482593981</v>
       </c>
       <c r="T5">
-        <v>0.1208369241740694</v>
+        <v>0.0219425448259398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>885.5270739082333</v>
+        <v>305.2684801433119</v>
       </c>
       <c r="R6">
-        <v>885.5270739082333</v>
+        <v>2747.416321289807</v>
       </c>
       <c r="S6">
-        <v>0.5999312807470291</v>
+        <v>0.1261954218362909</v>
       </c>
       <c r="T6">
-        <v>0.5999312807470291</v>
+        <v>0.1261954218362908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>78.77899433046252</v>
+        <v>891.2951608832041</v>
       </c>
       <c r="R7">
-        <v>78.77899433046252</v>
+        <v>8021.656447948836</v>
       </c>
       <c r="S7">
-        <v>0.05337158440119592</v>
+        <v>0.3684539221196267</v>
       </c>
       <c r="T7">
-        <v>0.05337158440119592</v>
+        <v>0.3684539221196266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>0.3445531360612373</v>
+        <v>24.626736825292</v>
       </c>
       <c r="R8">
-        <v>0.3445531360612373</v>
+        <v>221.640631427628</v>
       </c>
       <c r="S8">
-        <v>0.0002334295701319738</v>
+        <v>0.01018048584858829</v>
       </c>
       <c r="T8">
-        <v>0.0002334295701319738</v>
+        <v>0.01018048584858829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>1.710637750964711</v>
+        <v>80.55583692674</v>
       </c>
       <c r="R9">
-        <v>1.710637750964711</v>
+        <v>725.00253234066</v>
       </c>
       <c r="S9">
-        <v>0.001158931360846036</v>
+        <v>0.03330110536657098</v>
       </c>
       <c r="T9">
-        <v>0.001158931360846036</v>
+        <v>0.03330110536657097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H10">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.641192516667742</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N10">
-        <v>0.641192516667742</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q10">
-        <v>0.1521831750326467</v>
+        <v>0.899457167022222</v>
       </c>
       <c r="R10">
-        <v>0.1521831750326467</v>
+        <v>8.095114503199998</v>
       </c>
       <c r="S10">
-        <v>0.0001031018133669693</v>
+        <v>0.0003718280268003989</v>
       </c>
       <c r="T10">
-        <v>0.0001031018133669693</v>
+        <v>0.0003718280268003988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H11">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I11">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J11">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45170379307354</v>
+        <v>7.245227</v>
       </c>
       <c r="N11">
-        <v>1.45170379307354</v>
+        <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q11">
-        <v>26.97366092170729</v>
+        <v>2.626153279933333</v>
       </c>
       <c r="R11">
-        <v>26.97366092170729</v>
+        <v>23.6353795194</v>
       </c>
       <c r="S11">
-        <v>0.01827424978863256</v>
+        <v>0.001085629675269331</v>
       </c>
       <c r="T11">
-        <v>0.01827424978863256</v>
+        <v>0.00108562967526933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H12">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I12">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J12">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.20742042878663</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N12">
-        <v>7.20742042878663</v>
+        <v>0.600563</v>
       </c>
       <c r="O12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q12">
-        <v>133.9188584433411</v>
+        <v>0.07256135624444444</v>
       </c>
       <c r="R12">
-        <v>133.9188584433411</v>
+        <v>0.6530522061999999</v>
       </c>
       <c r="S12">
-        <v>0.0907280134389426</v>
+        <v>2.999625430041851E-05</v>
       </c>
       <c r="T12">
-        <v>0.0907280134389426</v>
+        <v>2.999625430041851E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H13">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I13">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J13">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.641192516667742</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N13">
-        <v>0.641192516667742</v>
+        <v>1.964485</v>
       </c>
       <c r="O13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q13">
-        <v>11.9138006063305</v>
+        <v>0.2373534432222222</v>
       </c>
       <c r="R13">
-        <v>11.9138006063305</v>
+        <v>2.136180989</v>
       </c>
       <c r="S13">
-        <v>0.008071420814696938</v>
+        <v>9.811991686027555E-05</v>
       </c>
       <c r="T13">
-        <v>0.008071420814696938</v>
+        <v>9.811991686027553E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H14">
+        <v>72.491192</v>
+      </c>
+      <c r="I14">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J14">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>59.96203990287287</v>
+      </c>
+      <c r="R14">
+        <v>539.6583591258559</v>
+      </c>
+      <c r="S14">
+        <v>0.02478780290764104</v>
+      </c>
+      <c r="T14">
+        <v>0.02478780290764103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H15">
+        <v>72.491192</v>
+      </c>
+      <c r="I15">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J15">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>175.0717138468613</v>
+      </c>
+      <c r="R15">
+        <v>1575.645424621752</v>
+      </c>
+      <c r="S15">
+        <v>0.07237317383745329</v>
+      </c>
+      <c r="T15">
+        <v>0.07237317383745327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H16">
+        <v>72.491192</v>
+      </c>
+      <c r="I16">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J16">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>4.837280860121777</v>
+      </c>
+      <c r="R16">
+        <v>43.535527741096</v>
+      </c>
+      <c r="S16">
+        <v>0.001999691217373978</v>
+      </c>
+      <c r="T16">
+        <v>0.001999691217373978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H17">
+        <v>72.491192</v>
+      </c>
+      <c r="I17">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J17">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>15.82309547956889</v>
+      </c>
+      <c r="R17">
+        <v>142.40785931612</v>
+      </c>
+      <c r="S17">
+        <v>0.006541134570666058</v>
+      </c>
+      <c r="T17">
+        <v>0.006541134570666057</v>
       </c>
     </row>
   </sheetData>
